--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3629840.806963151</v>
+        <v>3622823.792071439</v>
       </c>
     </row>
     <row r="7">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,10 +673,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>40.52814952598082</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>284.3847470051799</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>37.88638099191839</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>300.8915849827649</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>21.97625921963522</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491428</v>
+        <v>15.90252802695406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1107,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>246.039465850583</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>369.3088179022121</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>197.1081020124714</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1302,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>26.3288200405003</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.2720459863183</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,19 +1530,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>17.31716738015044</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1590,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>271.7818641996884</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>41.88171928086707</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2010,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>176.0487189978213</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>29.76972878761717</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>128.4454829742689</v>
+        <v>24.01153903325422</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2721,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W28" t="n">
-        <v>149.5797125653655</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>43.72170015350653</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>12.6876264333677</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3246,7 +3246,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>118.995544662309</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3429,16 +3429,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>53.10309428688434</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>183.4653217847138</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>104.8066435461227</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,16 +3717,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>252.6841021285859</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3757,10 +3757,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>129.0147963254175</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3963,10 +3963,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>87.44132015039787</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>122.3333955609652</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,16 +4188,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>632.3182666762914</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>632.3182666762914</v>
+        <v>940.7524019189439</v>
       </c>
       <c r="D2" t="n">
-        <v>632.3182666762914</v>
+        <v>582.4867033121934</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762914</v>
+        <v>582.4867033121934</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>575.54120256299</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4372,10 +4372,10 @@
         <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1022.457598652103</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>632.3182666762914</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,7 +4412,7 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
         <v>670.8219208598706</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>512.2963347852319</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>512.2963347852319</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>936.2491605982761</v>
+        <v>1349.56916835588</v>
       </c>
       <c r="C5" t="n">
-        <v>632.3182666762914</v>
+        <v>980.6066514154681</v>
       </c>
       <c r="D5" t="n">
-        <v>632.3182666762914</v>
+        <v>622.3409528087177</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>236.5527002104735</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>229.60719946127</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4564,16 +4564,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4582,13 +4582,13 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834949</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.546461473041</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859356</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X5" t="n">
-        <v>936.2491605982761</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="Y5" t="n">
-        <v>936.2491605982761</v>
+        <v>1349.56916835588</v>
       </c>
     </row>
     <row r="6">
@@ -4637,34 +4637,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615929</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572649</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036446</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600565</v>
+        <v>712.0658245832483</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600565</v>
+        <v>712.0658245832483</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600565</v>
+        <v>712.0658245832483</v>
       </c>
       <c r="T7" t="n">
-        <v>471.4038777286582</v>
+        <v>712.0658245832483</v>
       </c>
       <c r="U7" t="n">
-        <v>222.8791647482714</v>
+        <v>712.0658245832483</v>
       </c>
       <c r="V7" t="n">
-        <v>222.8791647482714</v>
+        <v>712.0658245832483</v>
       </c>
       <c r="W7" t="n">
-        <v>222.8791647482714</v>
+        <v>422.6486545462877</v>
       </c>
       <c r="X7" t="n">
-        <v>222.8791647482714</v>
+        <v>422.6486545462877</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.8791647482714</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1721.819089287443</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C8" t="n">
-        <v>1721.819089287443</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>819.7159451700466</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>433.9276925718023</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>426.9821918225988</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2443.021308606826</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.021308606826</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2111.958421263255</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2111.958421263255</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>2111.958421263255</v>
+        <v>2323.683332757142</v>
       </c>
       <c r="Y8" t="n">
-        <v>1721.819089287443</v>
+        <v>1933.54400078133</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571351</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>541.9956044222747</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C10" t="n">
-        <v>373.0594214943678</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D10" t="n">
-        <v>222.942782082032</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>80.53774953804151</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>80.53774953804151</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>80.53774953804151</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>541.9956044222747</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>541.9956044222747</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>541.9956044222747</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>541.9956044222747</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>541.9956044222747</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>541.9956044222747</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>541.9956044222747</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5026,28 +5026,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5056,10 +5056,10 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5108,13 +5108,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
         <v>97.21709146028584</v>
@@ -5123,16 +5123,16 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.683698656582</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1908.095276920732</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136705</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>582.2416896507652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5202,13 +5202,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1481.424182295124</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1281.504172210676</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1057.718757000182</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U13" t="n">
-        <v>1057.718757000182</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V13" t="n">
-        <v>803.0342687942954</v>
+        <v>820.5263570570741</v>
       </c>
       <c r="W13" t="n">
-        <v>803.0342687942954</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X13" t="n">
-        <v>803.0342687942954</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>582.2416896507652</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5257,40 +5257,40 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5302,22 +5302,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701562</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766204</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.683698656582</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059517</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1456.611503607532</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1456.611503607532</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1167.48286482109</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>1167.48286482109</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>878.0656947841297</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X16" t="n">
-        <v>650.0761438861124</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>429.2835647425823</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1016.813592216475</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1346.676219880508</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>503.5547239186418</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>503.5547239186418</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>503.5547239186418</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1164.055751909234</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>909.3712637033474</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>731.5442748166591</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>503.5547239186418</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>503.5547239186418</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,43 +5737,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5797,7 +5797,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5819,34 +5819,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>498.905640096559</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>745.6707680030231</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>533.625157037447</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>533.625157037447</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>503.5547239186418</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1164.055751909234</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>1164.055751909234</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>1164.055751909234</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>936.0662010112169</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>715.2736218676868</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5968,49 +5968,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6056,13 +6056,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6071,19 +6071,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>659.3731057211722</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M24" t="n">
-        <v>966.693239001134</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N24" t="n">
-        <v>1296.555866665167</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O24" t="n">
-        <v>1966.019627967826</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4055.714583485207</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>3886.7784005573</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>3886.7784005573</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>3738.865306974907</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>3738.865306974907</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>4660.934562929845</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>4531.191650834624</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V25" t="n">
-        <v>4276.507162628737</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W25" t="n">
-        <v>4276.507162628737</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X25" t="n">
-        <v>4276.507162628737</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y25" t="n">
-        <v>4055.714583485207</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>901.6749225845922</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.043068977054</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4037.196409009358</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>4037.196409009358</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>4037.196409009358</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>3889.283315426965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3889.283315426965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431058</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436455</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014294</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>4637.0691578038</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>4637.0691578038</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>4637.0691578038</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>4485.978539050906</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>4257.988988152889</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>4037.196409009358</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6463,49 +6463,49 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6530,37 +6530,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701562</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1470.815640507007</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2080.218333389736</v>
+        <v>2227.840212610278</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2432.862693392488</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
         <v>97.21709146028584</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1031.04751177457</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>776.3630235686835</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>486.9458535317228</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>486.9458535317228</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6724,28 +6724,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>412.6079778147082</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>659.3731057211724</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>1164.055751909234</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U34" t="n">
-        <v>874.9271131227924</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V34" t="n">
-        <v>620.2426249169056</v>
+        <v>554.8095831774258</v>
       </c>
       <c r="W34" t="n">
-        <v>330.825454879945</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="X34" t="n">
-        <v>330.825454879945</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y34" t="n">
-        <v>110.0328757364149</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6937,28 +6937,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7004,37 +7004,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341675</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1016.813592216475</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1346.676219880508</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>562.3990000507114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>562.3990000507114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
         <v>97.21709146028584</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1334.201677941057</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>1045.073039154616</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>790.3885509487287</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W37" t="n">
-        <v>790.3885509487287</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X37" t="n">
-        <v>562.3990000507114</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>562.3990000507114</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7165,13 +7165,13 @@
         <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823785</v>
@@ -7253,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2103.010087623274</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>668.5656656016674</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>668.5656656016674</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>668.5656656016674</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>668.5656656016674</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>521.675718103757</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>353.5003964235776</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>203.0823879715209</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7365,19 +7365,19 @@
         <v>1298.996260473455</v>
       </c>
       <c r="U40" t="n">
-        <v>1043.759793676903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V40" t="n">
-        <v>789.0753054710162</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W40" t="n">
-        <v>499.6581354340557</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="X40" t="n">
-        <v>499.6581354340557</v>
+        <v>1071.006709575437</v>
       </c>
       <c r="Y40" t="n">
-        <v>278.8655562905255</v>
+        <v>850.2141304319072</v>
       </c>
     </row>
     <row r="41">
@@ -7390,31 +7390,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7429,31 +7429,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7487,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701559</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>796.3635653766198</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.683698656581</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1433.546326320614</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2103.010087623273</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,46 +7545,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1009.867621687013</v>
+        <v>584.4452354807079</v>
       </c>
       <c r="C43" t="n">
-        <v>840.9314387591057</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D43" t="n">
-        <v>710.6134626728254</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E43" t="n">
-        <v>562.7003690904323</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F43" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
         <v>1460.082827585746</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1298.996260473454</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1009.867621687013</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V43" t="n">
-        <v>1009.867621687013</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W43" t="n">
-        <v>1009.867621687013</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="X43" t="n">
-        <v>1009.867621687013</v>
+        <v>986.8862794544777</v>
       </c>
       <c r="Y43" t="n">
-        <v>1009.867621687013</v>
+        <v>766.0937003109476</v>
       </c>
     </row>
     <row r="44">
@@ -7642,31 +7642,31 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7727,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4054.691437400724</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>3885.755254472817</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>3885.755254472817</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>3885.755254472817</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>3738.865306974907</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>4660.934562929845</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>4660.934562929845</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>4406.250074723958</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>4406.250074723958</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>4178.260523825941</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>4178.260523825941</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8060,10 +8060,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8549,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992663</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8771,19 +8771,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>145.2351313103795</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,16 +9008,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>414.5002179180832</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>176.7176547498445</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,16 +9479,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>213.2603911806622</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.314990659903</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9719,10 +9719,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>159.0121003135238</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>41.75994765618339</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>43.65987261462453</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>104.6241510367949</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10430,28 +10430,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>283.6093329825486</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>176.7176547498447</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10916,13 +10916,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>230.7151863772039</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11153,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>230.7151863772045</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11387,19 +11387,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>230.7151863772034</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,19 +23418,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>92.64718502364235</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>14.74113413690264</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23670,7 +23670,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23703,25 +23703,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>156.0390907027362</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23898,10 +23898,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23910,7 +23910,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>110.4742793387697</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>118.8457442305952</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24147,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,22 +24417,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>157.7918694243085</v>
+        <v>262.2258133653231</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24609,19 +24609,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W28" t="n">
-        <v>136.9432857712255</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>242.5156522450708</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>167.1443537485696</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>133.142098661519</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25317,16 +25317,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>168.4444667715049</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>103.0576765518772</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>5.612601918149281</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,16 +25605,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>33.55325026999142</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>19.60067669279488</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25839,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25851,10 +25851,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>138.2683352386393</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>57.49858462097208</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,16 +26076,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>686136.2154504</v>
+        <v>686136.2154504001</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>686136.2154504003</v>
+        <v>686136.2154504001</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>686136.2154504001</v>
+        <v>686136.2154504</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>686136.2154504003</v>
+        <v>686136.2154504001</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>686136.2154504</v>
+        <v>686136.2154504001</v>
       </c>
     </row>
     <row r="15">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778548</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778551</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778549</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="E2" t="n">
+        <v>703852.3075278756</v>
+      </c>
+      <c r="F2" t="n">
         <v>703852.3075278759</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>703852.3075278759</v>
+      </c>
+      <c r="H2" t="n">
+        <v>703852.3075278761</v>
+      </c>
+      <c r="I2" t="n">
         <v>703852.307527876</v>
       </c>
-      <c r="G2" t="n">
-        <v>703852.3075278762</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>703852.3075278759</v>
-      </c>
-      <c r="I2" t="n">
-        <v>703852.3075278756</v>
-      </c>
-      <c r="J2" t="n">
-        <v>703852.307527876</v>
       </c>
       <c r="K2" t="n">
         <v>703852.307527876</v>
@@ -26346,16 +26346,16 @@
         <v>703852.3075278761</v>
       </c>
       <c r="M2" t="n">
-        <v>703852.3075278758</v>
+        <v>703852.3075278759</v>
       </c>
       <c r="N2" t="n">
-        <v>703852.3075278758</v>
+        <v>703852.307527876</v>
       </c>
       <c r="O2" t="n">
-        <v>703852.3075278756</v>
+        <v>703852.3075278761</v>
       </c>
       <c r="P2" t="n">
-        <v>703852.3075278761</v>
+        <v>703852.307527876</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
-        <v>1.469155386075727e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.270016921102069e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26435,28 +26435,28 @@
         <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.60758687076</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
         <v>22174.60758687071</v>
@@ -26472,46 +26472,46 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-99522.23218662356</v>
+        <v>-99522.23218662376</v>
       </c>
       <c r="C6" t="n">
-        <v>490445.6470279211</v>
+        <v>490445.6470279208</v>
       </c>
       <c r="D6" t="n">
-        <v>490445.6470279211</v>
+        <v>490445.6470279208</v>
       </c>
       <c r="E6" t="n">
-        <v>64530.33751539263</v>
+        <v>63555.74625567029</v>
       </c>
       <c r="F6" t="n">
-        <v>589690.3739922887</v>
+        <v>588715.7827325672</v>
       </c>
       <c r="G6" t="n">
-        <v>589690.373992289</v>
+        <v>588715.7827325669</v>
       </c>
       <c r="H6" t="n">
-        <v>589690.3739922886</v>
+        <v>588715.7827325672</v>
       </c>
       <c r="I6" t="n">
-        <v>589690.3739922884</v>
+        <v>588715.7827325671</v>
       </c>
       <c r="J6" t="n">
-        <v>413267.1547996955</v>
+        <v>412292.5635399739</v>
       </c>
       <c r="K6" t="n">
-        <v>589690.3739922887</v>
+        <v>588715.7827325671</v>
       </c>
       <c r="L6" t="n">
-        <v>589690.3739922888</v>
+        <v>588715.7827325672</v>
       </c>
       <c r="M6" t="n">
-        <v>454889.3587584514</v>
+        <v>453914.7674987298</v>
       </c>
       <c r="N6" t="n">
-        <v>589690.3739922886</v>
+        <v>588715.7827325671</v>
       </c>
       <c r="O6" t="n">
-        <v>589690.3739922884</v>
+        <v>588715.7827325672</v>
       </c>
       <c r="P6" t="n">
-        <v>589690.3739922886</v>
+        <v>588715.7827325671</v>
       </c>
     </row>
   </sheetData>
@@ -26740,46 +26740,46 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="F3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541004</v>
-      </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26813,7 +26813,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.638741237014</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27014,13 +27014,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545561</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,10 +27393,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>373.2560204948142</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>85.34635367328917</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,13 +27593,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>248.3954932500594</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27618,19 +27618,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>64.38130678824268</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>391.8079108011598</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27669,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,13 +27776,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853698</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,31 +27818,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>13.22022192796024</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>40.24240839139475</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>44.47535211858292</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>19.34021834518634</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28022,19 +28022,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>108.636801751838</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>27.87349296370056</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -30477,7 +30477,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31284,43 +31284,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,25 +31460,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,10 +31752,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31764,37 +31764,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,10 +32165,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,10 +33350,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,10 +33587,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,10 +33824,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361487</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,43 +34286,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34780,10 +34780,10 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35108,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
-        <v>427.5988335514877</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>747.6947913160961</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,25 +35889,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>487.1420318003109</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>363.8358297686015</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36217,7 +36217,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502032</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>366.1055152450486</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>324.1236498972916</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>250.7532875461493</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>192.637183821869</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>594.0337100330149</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>487.142031800311</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37636,13 +37636,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>437.8086013087286</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349802</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>437.808601308729</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507405</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38104,19 +38104,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>563.9097597752163</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3622823.792071439</v>
+        <v>3627763.054920471</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8044481.262439433</v>
+        <v>8044481.262439432</v>
       </c>
     </row>
     <row r="11">
@@ -667,19 +667,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>40.52814952598082</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>51.33268671918121</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>59.72683757586869</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>214.3015170458284</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>21.97625921963522</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>25.31590541686235</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>15.90252802695406</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1144,10 +1144,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>369.3088179022121</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>325.2557485598865</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>26.3288200405003</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>26.32882004050031</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051994</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>271.7818641996884</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>97.81099857300282</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>5.107731335946075</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>237.3965091869253</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,19 +2241,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,19 +2292,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>49.02454430863612</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>24.01153903325422</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2772,7 +2772,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>169.7438101404424</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -3246,13 +3246,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>118.995544662309</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>183.4653217847138</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>104.8066435461227</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3954,19 +3954,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>87.44132015039787</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>116.8645225501837</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1309.714918859356</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="C2" t="n">
-        <v>940.7524019189439</v>
+        <v>1601.952160546617</v>
       </c>
       <c r="D2" t="n">
-        <v>582.4867033121934</v>
+        <v>1243.686461939866</v>
       </c>
       <c r="E2" t="n">
-        <v>582.4867033121934</v>
+        <v>857.8982093416219</v>
       </c>
       <c r="F2" t="n">
-        <v>575.54120256299</v>
+        <v>850.9527085924184</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>432.9889004906053</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>105.7941805266081</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X2" t="n">
-        <v>1309.714918859356</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y2" t="n">
-        <v>1309.714918859356</v>
+        <v>1970.914677487028</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>498.8626623130036</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1349.56916835588</v>
+        <v>1018.506281012309</v>
       </c>
       <c r="C5" t="n">
-        <v>980.6066514154681</v>
+        <v>649.5437640718976</v>
       </c>
       <c r="D5" t="n">
-        <v>622.3409528087177</v>
+        <v>291.2780654651471</v>
       </c>
       <c r="E5" t="n">
-        <v>236.5527002104735</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>229.60719946127</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4603,16 +4603,16 @@
         <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>2113.174258592771</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X5" t="n">
-        <v>1739.708500331692</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y5" t="n">
-        <v>1349.56916835588</v>
+        <v>1018.506281012309</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>201.8560754027576</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C7" t="n">
-        <v>201.8560754027576</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>712.0658245832483</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>712.0658245832483</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>712.0658245832483</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>712.0658245832483</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>712.0658245832483</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>712.0658245832483</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>422.6486545462877</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>422.6486545462877</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1546.944160717209</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1177.981643776797</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>819.7159451700466</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>433.9276925718023</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>426.9821918225988</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4846,10 +4846,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757142</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.54400078133</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761945</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="C10" t="n">
-        <v>377.5443364482876</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D10" t="n">
-        <v>227.4276970359519</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>227.4276970359519</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>80.53774953804151</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>80.53774953804151</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>80.53774953804151</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>701.5342164887571</v>
       </c>
     </row>
     <row r="11">
@@ -5026,46 +5026,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5108,34 +5108,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341676</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2205.048458376741</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>729.1316371486756</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.210845262961</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.210845262961</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V13" t="n">
-        <v>820.5263570570741</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W13" t="n">
-        <v>545.9992215018333</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="X13" t="n">
-        <v>318.0096706038159</v>
+        <v>910.7801019789154</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>910.7801019789154</v>
       </c>
     </row>
     <row r="14">
@@ -5275,37 +5275,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5354,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1493.756945976139</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1269.971530765645</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>980.8428919792032</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706318</v>
+        <v>726.1584037733163</v>
       </c>
       <c r="W16" t="n">
-        <v>241.9805482336712</v>
+        <v>436.7412337363557</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
         <v>1701.09316900344</v>
@@ -5509,34 +5509,34 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5548,16 +5548,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5582,34 +5582,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5676,13 +5676,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,31 +5691,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336712</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
         <v>97.21709146028584</v>
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,43 +5737,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5819,37 +5819,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262065</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>732.358329063101</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5913,13 +5913,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1249.47651874756</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>960.3478799611183</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>960.3478799611183</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336712</v>
+        <v>960.3478799611183</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>732.358329063101</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>732.358329063101</v>
       </c>
     </row>
     <row r="23">
@@ -5980,19 +5980,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6068,22 +6068,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L24" t="n">
-        <v>1206.718781115524</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M24" t="n">
-        <v>1514.038914395485</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059518</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6180,19 +6180,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1050.956765431391</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>796.2722772255036</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>506.8551071885429</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X25" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6205,31 +6205,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6244,10 +6244,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6305,22 +6305,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6411,13 +6411,13 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
         <v>614.6238123952637</v>
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,25 +6448,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6551,16 +6551,16 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2227.840212610278</v>
+        <v>2227.840212610279</v>
       </c>
       <c r="P30" t="n">
-        <v>2432.862693392488</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6648,10 +6648,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
         <v>869.3083006011506</v>
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6685,25 +6685,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6736,16 +6736,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6797,7 +6797,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028584</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>675.007103038344</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>554.8095831774258</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>265.3924131404652</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6925,7 +6925,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6940,7 +6940,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6955,10 +6955,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7122,22 +7122,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
         <v>97.21709146028584</v>
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7159,25 +7159,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7192,10 +7192,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7271,7 +7271,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>668.5656656016674</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>668.5656656016674</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>668.5656656016674</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>668.5656656016674</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>521.675718103757</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>353.5003964235776</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>203.0823879715209</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7362,22 +7362,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1298.996260473455</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>1298.996260473455</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>1298.996260473455</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X40" t="n">
-        <v>1071.006709575437</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>850.2141304319072</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7402,19 +7402,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7490,22 +7490,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>584.4452354807079</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>415.509052552801</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7602,19 +7602,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1075.21084526296</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>1075.21084526296</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>1075.21084526296</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>986.8862794544777</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>766.0937003109476</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,52 +7627,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
   </sheetData>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229574</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>127.646125010065</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735861</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>104.6241510367947</v>
       </c>
       <c r="Q30" t="n">
-        <v>104.6241510367949</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10445,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23469,22 +23469,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>14.74113413690264</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>127.8986568160343</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23673,7 +23673,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>192.8130786476572</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23946,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>14.74113413690273</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,19 +24129,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24180,19 +24180,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>172.5230167497531</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>262.2258133653231</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>82.39383318338562</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>133.142098661519</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25362,10 +25362,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>103.0576765518772</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>5.612601918149281</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,22 +25602,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25842,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>138.2683352386393</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>686136.2154504001</v>
+        <v>686136.2154504</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>686136.2154504</v>
+        <v>686136.2154504001</v>
       </c>
     </row>
     <row r="10">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778546</v>
+        <v>738937.5928778548</v>
       </c>
       <c r="C2" t="n">
         <v>738937.5928778547</v>
@@ -26322,37 +26322,37 @@
         <v>738937.5928778546</v>
       </c>
       <c r="E2" t="n">
-        <v>703852.3075278756</v>
+        <v>703852.3075278759</v>
       </c>
       <c r="F2" t="n">
         <v>703852.3075278759</v>
       </c>
       <c r="G2" t="n">
+        <v>703852.3075278758</v>
+      </c>
+      <c r="H2" t="n">
+        <v>703852.3075278758</v>
+      </c>
+      <c r="I2" t="n">
         <v>703852.3075278759</v>
       </c>
-      <c r="H2" t="n">
-        <v>703852.3075278761</v>
-      </c>
-      <c r="I2" t="n">
-        <v>703852.307527876</v>
-      </c>
       <c r="J2" t="n">
-        <v>703852.3075278759</v>
+        <v>703852.3075278758</v>
       </c>
       <c r="K2" t="n">
         <v>703852.307527876</v>
       </c>
       <c r="L2" t="n">
+        <v>703852.307527876</v>
+      </c>
+      <c r="M2" t="n">
         <v>703852.3075278761</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>703852.3075278756</v>
+      </c>
+      <c r="O2" t="n">
         <v>703852.3075278759</v>
-      </c>
-      <c r="N2" t="n">
-        <v>703852.307527876</v>
-      </c>
-      <c r="O2" t="n">
-        <v>703852.3075278761</v>
       </c>
       <c r="P2" t="n">
         <v>703852.307527876</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26429,13 +26429,13 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687066</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
@@ -26459,7 +26459,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
     </row>
     <row r="5">
@@ -26481,7 +26481,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26493,10 +26493,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
@@ -26508,10 +26508,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="P5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-99522.23218662376</v>
+        <v>-99522.23218662359</v>
       </c>
       <c r="C6" t="n">
-        <v>490445.6470279208</v>
+        <v>490445.6470279209</v>
       </c>
       <c r="D6" t="n">
         <v>490445.6470279208</v>
       </c>
       <c r="E6" t="n">
-        <v>63555.74625567029</v>
+        <v>64432.87838942009</v>
       </c>
       <c r="F6" t="n">
-        <v>588715.7827325672</v>
+        <v>589592.9148663162</v>
       </c>
       <c r="G6" t="n">
-        <v>588715.7827325669</v>
+        <v>589592.9148663164</v>
       </c>
       <c r="H6" t="n">
-        <v>588715.7827325672</v>
+        <v>589592.9148663164</v>
       </c>
       <c r="I6" t="n">
-        <v>588715.7827325671</v>
+        <v>589592.9148663167</v>
       </c>
       <c r="J6" t="n">
-        <v>412292.5635399739</v>
+        <v>413169.6956737233</v>
       </c>
       <c r="K6" t="n">
-        <v>588715.7827325671</v>
+        <v>589592.9148663166</v>
       </c>
       <c r="L6" t="n">
-        <v>588715.7827325672</v>
+        <v>589592.9148663166</v>
       </c>
       <c r="M6" t="n">
-        <v>453914.7674987298</v>
+        <v>454791.8996324795</v>
       </c>
       <c r="N6" t="n">
-        <v>588715.7827325671</v>
+        <v>589592.9148663162</v>
       </c>
       <c r="O6" t="n">
-        <v>588715.7827325672</v>
+        <v>589592.9148663165</v>
       </c>
       <c r="P6" t="n">
-        <v>588715.7827325671</v>
+        <v>589592.9148663166</v>
       </c>
     </row>
   </sheetData>
@@ -26746,25 +26746,25 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="F3" t="n">
         <v>830.3824054541005</v>
       </c>
-      <c r="F3" t="n">
-        <v>830.3824054541002</v>
-      </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26776,7 +26776,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.638741237014</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>373.2560204948142</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>100.59862952568</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120.1051426060686</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>167.6288530264334</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>391.8079108011598</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>19.88405377167465</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.22022192796024</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27864,10 +27864,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>44.47535211858292</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>108.636801751838</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>2.79392991441399</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,10 +31752,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31764,37 +31764,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,10 +32226,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,37 +32238,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,10 +32463,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,37 +32475,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32581,7 +32581,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,10 +35263,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734238</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>334.7395399415897</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507419</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586603</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504662</v>
@@ -36454,7 +36454,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36682,16 +36682,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,19 +36919,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>311.7175659683194</v>
       </c>
       <c r="Q30" t="n">
-        <v>192.637183821869</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37165,10 +37165,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37639,10 +37639,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37867,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
